--- a/natmiOut/OldD4/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Ednrb</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.4448391053622</v>
+        <v>13.67599</v>
       </c>
       <c r="H2">
-        <v>11.4448391053622</v>
+        <v>41.02797</v>
       </c>
       <c r="I2">
-        <v>0.9213601412297492</v>
+        <v>0.9202768337756827</v>
       </c>
       <c r="J2">
-        <v>0.9213601412297492</v>
+        <v>0.9307093336004689</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>38.5789307530738</v>
+        <v>41.71215133333333</v>
       </c>
       <c r="N2">
-        <v>38.5789307530738</v>
+        <v>125.136454</v>
       </c>
       <c r="O2">
-        <v>0.2051807122353098</v>
+        <v>0.2049377865502938</v>
       </c>
       <c r="P2">
-        <v>0.2051807122353098</v>
+        <v>0.2703868219970403</v>
       </c>
       <c r="Q2">
-        <v>441.5296553258394</v>
+        <v>570.4549645131533</v>
       </c>
       <c r="R2">
-        <v>441.5296553258394</v>
+        <v>5134.094680618379</v>
       </c>
       <c r="S2">
-        <v>0.1890453300027455</v>
+        <v>0.1885994973275011</v>
       </c>
       <c r="T2">
-        <v>0.1890453300027455</v>
+        <v>0.251651538915214</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.4448391053622</v>
+        <v>13.67599</v>
       </c>
       <c r="H3">
-        <v>11.4448391053622</v>
+        <v>41.02797</v>
       </c>
       <c r="I3">
-        <v>0.9213601412297492</v>
+        <v>0.9202768337756827</v>
       </c>
       <c r="J3">
-        <v>0.9213601412297492</v>
+        <v>0.9307093336004689</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.35391080655919</v>
+        <v>0.351966</v>
       </c>
       <c r="N3">
-        <v>3.35391080655919</v>
+        <v>1.055898</v>
       </c>
       <c r="O3">
-        <v>0.01783765891460554</v>
+        <v>0.001729259476562138</v>
       </c>
       <c r="P3">
-        <v>0.01783765891460554</v>
+        <v>0.002281516659989669</v>
       </c>
       <c r="Q3">
-        <v>38.3849695548055</v>
+        <v>4.81348349634</v>
       </c>
       <c r="R3">
-        <v>38.3849695548055</v>
+        <v>43.32135146706</v>
       </c>
       <c r="S3">
-        <v>0.01643490793676906</v>
+        <v>0.001591397435867199</v>
       </c>
       <c r="T3">
-        <v>0.01643490793676906</v>
+        <v>0.002123428850217352</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.4448391053622</v>
+        <v>13.67599</v>
       </c>
       <c r="H4">
-        <v>11.4448391053622</v>
+        <v>41.02797</v>
       </c>
       <c r="I4">
-        <v>0.9213601412297492</v>
+        <v>0.9202768337756827</v>
       </c>
       <c r="J4">
-        <v>0.9213601412297492</v>
+        <v>0.9307093336004689</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.06674075233701</v>
+        <v>4.108626</v>
       </c>
       <c r="N4">
-        <v>9.06674075233701</v>
+        <v>12.325878</v>
       </c>
       <c r="O4">
-        <v>0.04822114788832486</v>
+        <v>0.02018626925938754</v>
       </c>
       <c r="P4">
-        <v>0.04822114788832486</v>
+        <v>0.02663296644751684</v>
       </c>
       <c r="Q4">
-        <v>103.7673891205277</v>
+        <v>56.18952808973999</v>
       </c>
       <c r="R4">
-        <v>103.7673891205277</v>
+        <v>505.70575280766</v>
       </c>
       <c r="S4">
-        <v>0.04442904362864762</v>
+        <v>0.01857695595977256</v>
       </c>
       <c r="T4">
-        <v>0.04442904362864762</v>
+        <v>0.02478755045417205</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.4448391053622</v>
+        <v>13.67599</v>
       </c>
       <c r="H5">
-        <v>11.4448391053622</v>
+        <v>41.02797</v>
       </c>
       <c r="I5">
-        <v>0.9213601412297492</v>
+        <v>0.9202768337756827</v>
       </c>
       <c r="J5">
-        <v>0.9213601412297492</v>
+        <v>0.9307093336004689</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>137.024576161707</v>
+        <v>9.561199666666667</v>
       </c>
       <c r="N5">
-        <v>137.024576161707</v>
+        <v>28.683599</v>
       </c>
       <c r="O5">
-        <v>0.7287604809617597</v>
+        <v>0.04697554630528544</v>
       </c>
       <c r="P5">
-        <v>0.7287604809617597</v>
+        <v>0.06197768059695444</v>
       </c>
       <c r="Q5">
-        <v>1568.224227651185</v>
+        <v>130.7588710293367</v>
       </c>
       <c r="R5">
-        <v>1568.224227651185</v>
+        <v>1176.82983926403</v>
       </c>
       <c r="S5">
-        <v>0.6714508596615869</v>
+        <v>0.04323050701871105</v>
       </c>
       <c r="T5">
-        <v>0.6714508596615869</v>
+        <v>0.05768320580649419</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.478689423541983</v>
+        <v>13.67599</v>
       </c>
       <c r="H6">
-        <v>0.478689423541983</v>
+        <v>41.02797</v>
       </c>
       <c r="I6">
-        <v>0.03853661469764023</v>
+        <v>0.9202768337756827</v>
       </c>
       <c r="J6">
-        <v>0.03853661469764023</v>
+        <v>0.9307093336004689</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>38.5789307530738</v>
+        <v>147.801735</v>
       </c>
       <c r="N6">
-        <v>38.5789307530738</v>
+        <v>295.60347</v>
       </c>
       <c r="O6">
-        <v>0.2051807122353098</v>
+        <v>0.726171138408471</v>
       </c>
       <c r="P6">
-        <v>0.2051807122353098</v>
+        <v>0.6387210142984988</v>
       </c>
       <c r="Q6">
-        <v>18.46732612305498</v>
+        <v>2021.33504984265</v>
       </c>
       <c r="R6">
-        <v>18.46732612305498</v>
+        <v>12128.0102990559</v>
       </c>
       <c r="S6">
-        <v>0.007906970050799529</v>
+        <v>0.6682784760338307</v>
       </c>
       <c r="T6">
-        <v>0.007906970050799529</v>
+        <v>0.5944636095743714</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.478689423541983</v>
+        <v>0.528683</v>
       </c>
       <c r="H7">
-        <v>0.478689423541983</v>
+        <v>1.586049</v>
       </c>
       <c r="I7">
-        <v>0.03853661469764023</v>
+        <v>0.03557583160787843</v>
       </c>
       <c r="J7">
-        <v>0.03853661469764023</v>
+        <v>0.03597912857613209</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35391080655919</v>
+        <v>41.71215133333333</v>
       </c>
       <c r="N7">
-        <v>3.35391080655919</v>
+        <v>125.136454</v>
       </c>
       <c r="O7">
-        <v>0.01783765891460554</v>
+        <v>0.2049377865502938</v>
       </c>
       <c r="P7">
-        <v>0.01783765891460554</v>
+        <v>0.2703868219970403</v>
       </c>
       <c r="Q7">
-        <v>1.605481630603046</v>
+        <v>22.05250530336066</v>
       </c>
       <c r="R7">
-        <v>1.605481630603046</v>
+        <v>198.472547730246</v>
       </c>
       <c r="S7">
-        <v>0.0006874029887000814</v>
+        <v>0.007290832184404585</v>
       </c>
       <c r="T7">
-        <v>0.0006874029887000814</v>
+        <v>0.009728282233923254</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.478689423541983</v>
+        <v>0.528683</v>
       </c>
       <c r="H8">
-        <v>0.478689423541983</v>
+        <v>1.586049</v>
       </c>
       <c r="I8">
-        <v>0.03853661469764023</v>
+        <v>0.03557583160787843</v>
       </c>
       <c r="J8">
-        <v>0.03853661469764023</v>
+        <v>0.03597912857613209</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>9.06674075233701</v>
+        <v>0.351966</v>
       </c>
       <c r="N8">
-        <v>9.06674075233701</v>
+        <v>1.055898</v>
       </c>
       <c r="O8">
-        <v>0.04822114788832486</v>
+        <v>0.001729259476562138</v>
       </c>
       <c r="P8">
-        <v>0.04822114788832486</v>
+        <v>0.002281516659989669</v>
       </c>
       <c r="Q8">
-        <v>4.340152904140808</v>
+        <v>0.186078440778</v>
       </c>
       <c r="R8">
-        <v>4.340152904140808</v>
+        <v>1.674705967002</v>
       </c>
       <c r="S8">
-        <v>0.001858279796450303</v>
+        <v>6.151984394450264E-05</v>
       </c>
       <c r="T8">
-        <v>0.001858279796450303</v>
+        <v>8.208698125835574E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.478689423541983</v>
+        <v>0.528683</v>
       </c>
       <c r="H9">
-        <v>0.478689423541983</v>
+        <v>1.586049</v>
       </c>
       <c r="I9">
-        <v>0.03853661469764023</v>
+        <v>0.03557583160787843</v>
       </c>
       <c r="J9">
-        <v>0.03853661469764023</v>
+        <v>0.03597912857613209</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>137.024576161707</v>
+        <v>4.108626</v>
       </c>
       <c r="N9">
-        <v>137.024576161707</v>
+        <v>12.325878</v>
       </c>
       <c r="O9">
-        <v>0.7287604809617597</v>
+        <v>0.02018626925938754</v>
       </c>
       <c r="P9">
-        <v>0.7287604809617597</v>
+        <v>0.02663296644751684</v>
       </c>
       <c r="Q9">
-        <v>65.59221537393206</v>
+        <v>2.172160719558</v>
       </c>
       <c r="R9">
-        <v>65.59221537393206</v>
+        <v>19.549446476022</v>
       </c>
       <c r="S9">
-        <v>0.02808396186169031</v>
+        <v>0.0007181433159632638</v>
       </c>
       <c r="T9">
-        <v>0.02808396186169031</v>
+        <v>0.0009582309241790205</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.498149589368495</v>
+        <v>0.528683</v>
       </c>
       <c r="H10">
-        <v>0.498149589368495</v>
+        <v>1.586049</v>
       </c>
       <c r="I10">
-        <v>0.04010324407261055</v>
+        <v>0.03557583160787843</v>
       </c>
       <c r="J10">
-        <v>0.04010324407261055</v>
+        <v>0.03597912857613209</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>38.5789307530738</v>
+        <v>9.561199666666667</v>
       </c>
       <c r="N10">
-        <v>38.5789307530738</v>
+        <v>28.683599</v>
       </c>
       <c r="O10">
-        <v>0.2051807122353098</v>
+        <v>0.04697554630528544</v>
       </c>
       <c r="P10">
-        <v>0.2051807122353098</v>
+        <v>0.06197768059695444</v>
       </c>
       <c r="Q10">
-        <v>19.21807851291932</v>
+        <v>5.054843723372334</v>
       </c>
       <c r="R10">
-        <v>19.21807851291932</v>
+        <v>45.493593510351</v>
       </c>
       <c r="S10">
-        <v>0.008228412181764698</v>
+        <v>0.00167119412504493</v>
       </c>
       <c r="T10">
-        <v>0.008228412181764698</v>
+        <v>0.002229902939048271</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.498149589368495</v>
+        <v>0.528683</v>
       </c>
       <c r="H11">
-        <v>0.498149589368495</v>
+        <v>1.586049</v>
       </c>
       <c r="I11">
-        <v>0.04010324407261055</v>
+        <v>0.03557583160787843</v>
       </c>
       <c r="J11">
-        <v>0.04010324407261055</v>
+        <v>0.03597912857613209</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.35391080655919</v>
+        <v>147.801735</v>
       </c>
       <c r="N11">
-        <v>3.35391080655919</v>
+        <v>295.60347</v>
       </c>
       <c r="O11">
-        <v>0.01783765891460554</v>
+        <v>0.726171138408471</v>
       </c>
       <c r="P11">
-        <v>0.01783765891460554</v>
+        <v>0.6387210142984988</v>
       </c>
       <c r="Q11">
-        <v>1.670749291066018</v>
+        <v>78.14026466500501</v>
       </c>
       <c r="R11">
-        <v>1.670749291066018</v>
+        <v>468.8415879900301</v>
       </c>
       <c r="S11">
-        <v>0.0007153479891364035</v>
+        <v>0.02583414213852115</v>
       </c>
       <c r="T11">
-        <v>0.0007153479891364035</v>
+        <v>0.02298062549772319</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.498149589368495</v>
+        <v>0.1267363333333333</v>
       </c>
       <c r="H12">
-        <v>0.498149589368495</v>
+        <v>0.380209</v>
       </c>
       <c r="I12">
-        <v>0.04010324407261055</v>
+        <v>0.008528268269013033</v>
       </c>
       <c r="J12">
-        <v>0.04010324407261055</v>
+        <v>0.008624946957378119</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.06674075233701</v>
+        <v>41.71215133333333</v>
       </c>
       <c r="N12">
-        <v>9.06674075233701</v>
+        <v>125.136454</v>
       </c>
       <c r="O12">
-        <v>0.04822114788832486</v>
+        <v>0.2049377865502938</v>
       </c>
       <c r="P12">
-        <v>0.04822114788832486</v>
+        <v>0.2703868219970403</v>
       </c>
       <c r="Q12">
-        <v>4.516593182687281</v>
+        <v>5.286445115431778</v>
       </c>
       <c r="R12">
-        <v>4.516593182687281</v>
+        <v>47.578006038886</v>
       </c>
       <c r="S12">
-        <v>0.001933824463226941</v>
+        <v>0.001747764422158636</v>
       </c>
       <c r="T12">
-        <v>0.001933824463226941</v>
+        <v>0.002332071997698512</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1267363333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.380209</v>
+      </c>
+      <c r="I13">
+        <v>0.008528268269013033</v>
+      </c>
+      <c r="J13">
+        <v>0.008624946957378119</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.351966</v>
+      </c>
+      <c r="N13">
+        <v>1.055898</v>
+      </c>
+      <c r="O13">
+        <v>0.001729259476562138</v>
+      </c>
+      <c r="P13">
+        <v>0.002281516659989669</v>
+      </c>
+      <c r="Q13">
+        <v>0.044606880298</v>
+      </c>
+      <c r="R13">
+        <v>0.401461922682</v>
+      </c>
+      <c r="S13">
+        <v>1.474758872285497E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.967796017478538E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1267363333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.380209</v>
+      </c>
+      <c r="I14">
+        <v>0.008528268269013033</v>
+      </c>
+      <c r="J14">
+        <v>0.008624946957378119</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.108626</v>
+      </c>
+      <c r="N14">
+        <v>12.325878</v>
+      </c>
+      <c r="O14">
+        <v>0.02018626925938754</v>
+      </c>
+      <c r="P14">
+        <v>0.02663296644751684</v>
+      </c>
+      <c r="Q14">
+        <v>0.5207121942780001</v>
+      </c>
+      <c r="R14">
+        <v>4.686409748502001</v>
+      </c>
+      <c r="S14">
+        <v>0.0001721539195945879</v>
+      </c>
+      <c r="T14">
+        <v>0.0002297079229274639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1267363333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.380209</v>
+      </c>
+      <c r="I15">
+        <v>0.008528268269013033</v>
+      </c>
+      <c r="J15">
+        <v>0.008624946957378119</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.561199666666667</v>
+      </c>
+      <c r="N15">
+        <v>28.683599</v>
+      </c>
+      <c r="O15">
+        <v>0.04697554630528544</v>
+      </c>
+      <c r="P15">
+        <v>0.06197768059695444</v>
+      </c>
+      <c r="Q15">
+        <v>1.211751388021222</v>
+      </c>
+      <c r="R15">
+        <v>10.905762492191</v>
+      </c>
+      <c r="S15">
+        <v>0.0004006200609749182</v>
+      </c>
+      <c r="T15">
+        <v>0.0005345542076900552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1267363333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.380209</v>
+      </c>
+      <c r="I16">
+        <v>0.008528268269013033</v>
+      </c>
+      <c r="J16">
+        <v>0.008624946957378119</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>147.801735</v>
+      </c>
+      <c r="N16">
+        <v>295.60347</v>
+      </c>
+      <c r="O16">
+        <v>0.726171138408471</v>
+      </c>
+      <c r="P16">
+        <v>0.6387210142984988</v>
+      </c>
+      <c r="Q16">
+        <v>18.731849954205</v>
+      </c>
+      <c r="R16">
+        <v>112.39109972523</v>
+      </c>
+      <c r="S16">
+        <v>0.006192982277562035</v>
+      </c>
+      <c r="T16">
+        <v>0.005508934868887303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.029595</v>
+      </c>
+      <c r="H17">
+        <v>0.088785</v>
+      </c>
+      <c r="I17">
+        <v>0.001991489676110565</v>
+      </c>
+      <c r="J17">
+        <v>0.002014065725984436</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>41.71215133333333</v>
+      </c>
+      <c r="N17">
+        <v>125.136454</v>
+      </c>
+      <c r="O17">
+        <v>0.2049377865502938</v>
+      </c>
+      <c r="P17">
+        <v>0.2703868219970403</v>
+      </c>
+      <c r="Q17">
+        <v>1.23447111871</v>
+      </c>
+      <c r="R17">
+        <v>11.11024006839</v>
+      </c>
+      <c r="S17">
+        <v>0.0004081314861598608</v>
+      </c>
+      <c r="T17">
+        <v>0.0005445768309420933</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.029595</v>
+      </c>
+      <c r="H18">
+        <v>0.088785</v>
+      </c>
+      <c r="I18">
+        <v>0.001991489676110565</v>
+      </c>
+      <c r="J18">
+        <v>0.002014065725984436</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.351966</v>
+      </c>
+      <c r="N18">
+        <v>1.055898</v>
+      </c>
+      <c r="O18">
+        <v>0.001729259476562138</v>
+      </c>
+      <c r="P18">
+        <v>0.002281516659989669</v>
+      </c>
+      <c r="Q18">
+        <v>0.01041643377</v>
+      </c>
+      <c r="R18">
+        <v>0.09374790393</v>
+      </c>
+      <c r="S18">
+        <v>3.443802394889859E-06</v>
+      </c>
+      <c r="T18">
+        <v>4.595124508147677E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.498149589368495</v>
-      </c>
-      <c r="H13">
-        <v>0.498149589368495</v>
-      </c>
-      <c r="I13">
-        <v>0.04010324407261055</v>
-      </c>
-      <c r="J13">
-        <v>0.04010324407261055</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>137.024576161707</v>
-      </c>
-      <c r="N13">
-        <v>137.024576161707</v>
-      </c>
-      <c r="O13">
-        <v>0.7287604809617597</v>
-      </c>
-      <c r="P13">
-        <v>0.7287604809617597</v>
-      </c>
-      <c r="Q13">
-        <v>68.2587363483464</v>
-      </c>
-      <c r="R13">
-        <v>68.2587363483464</v>
-      </c>
-      <c r="S13">
-        <v>0.0292256594384825</v>
-      </c>
-      <c r="T13">
-        <v>0.0292256594384825</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.029595</v>
+      </c>
+      <c r="H19">
+        <v>0.088785</v>
+      </c>
+      <c r="I19">
+        <v>0.001991489676110565</v>
+      </c>
+      <c r="J19">
+        <v>0.002014065725984436</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.108626</v>
+      </c>
+      <c r="N19">
+        <v>12.325878</v>
+      </c>
+      <c r="O19">
+        <v>0.02018626925938754</v>
+      </c>
+      <c r="P19">
+        <v>0.02663296644751684</v>
+      </c>
+      <c r="Q19">
+        <v>0.12159478647</v>
+      </c>
+      <c r="R19">
+        <v>1.09435307823</v>
+      </c>
+      <c r="S19">
+        <v>4.020074682925835E-05</v>
+      </c>
+      <c r="T19">
+        <v>5.364054490323712E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.029595</v>
+      </c>
+      <c r="H20">
+        <v>0.088785</v>
+      </c>
+      <c r="I20">
+        <v>0.001991489676110565</v>
+      </c>
+      <c r="J20">
+        <v>0.002014065725984436</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>9.561199666666667</v>
+      </c>
+      <c r="N20">
+        <v>28.683599</v>
+      </c>
+      <c r="O20">
+        <v>0.04697554630528544</v>
+      </c>
+      <c r="P20">
+        <v>0.06197768059695444</v>
+      </c>
+      <c r="Q20">
+        <v>0.282963704135</v>
+      </c>
+      <c r="R20">
+        <v>2.546673337215</v>
+      </c>
+      <c r="S20">
+        <v>9.355131549662976E-05</v>
+      </c>
+      <c r="T20">
+        <v>0.0001248271222663365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.029595</v>
+      </c>
+      <c r="H21">
+        <v>0.088785</v>
+      </c>
+      <c r="I21">
+        <v>0.001991489676110565</v>
+      </c>
+      <c r="J21">
+        <v>0.002014065725984436</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>147.801735</v>
+      </c>
+      <c r="N21">
+        <v>295.60347</v>
+      </c>
+      <c r="O21">
+        <v>0.726171138408471</v>
+      </c>
+      <c r="P21">
+        <v>0.6387210142984988</v>
+      </c>
+      <c r="Q21">
+        <v>4.374192347325001</v>
+      </c>
+      <c r="R21">
+        <v>26.24515408395</v>
+      </c>
+      <c r="S21">
+        <v>0.001446162325229927</v>
+      </c>
+      <c r="T21">
+        <v>0.001286426103364621</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.4997305</v>
+      </c>
+      <c r="H22">
+        <v>0.9994609999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.03362757667131512</v>
+      </c>
+      <c r="J22">
+        <v>0.02267252514003638</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>41.71215133333333</v>
+      </c>
+      <c r="N22">
+        <v>125.136454</v>
+      </c>
+      <c r="O22">
+        <v>0.2049377865502938</v>
+      </c>
+      <c r="P22">
+        <v>0.2703868219970403</v>
+      </c>
+      <c r="Q22">
+        <v>20.84483424188233</v>
+      </c>
+      <c r="R22">
+        <v>125.069005451294</v>
+      </c>
+      <c r="S22">
+        <v>0.006891561130069617</v>
+      </c>
+      <c r="T22">
+        <v>0.006130352019262437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.4997305</v>
+      </c>
+      <c r="H23">
+        <v>0.9994609999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.03362757667131512</v>
+      </c>
+      <c r="J23">
+        <v>0.02267252514003638</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.351966</v>
+      </c>
+      <c r="N23">
+        <v>1.055898</v>
+      </c>
+      <c r="O23">
+        <v>0.001729259476562138</v>
+      </c>
+      <c r="P23">
+        <v>0.002281516659989669</v>
+      </c>
+      <c r="Q23">
+        <v>0.175888145163</v>
+      </c>
+      <c r="R23">
+        <v>1.055328870978</v>
+      </c>
+      <c r="S23">
+        <v>5.815080563269156E-05</v>
+      </c>
+      <c r="T23">
+        <v>5.172774383102759E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.4997305</v>
+      </c>
+      <c r="H24">
+        <v>0.9994609999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.03362757667131512</v>
+      </c>
+      <c r="J24">
+        <v>0.02267252514003638</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.108626</v>
+      </c>
+      <c r="N24">
+        <v>12.325878</v>
+      </c>
+      <c r="O24">
+        <v>0.02018626925938754</v>
+      </c>
+      <c r="P24">
+        <v>0.02663296644751684</v>
+      </c>
+      <c r="Q24">
+        <v>2.053205725293</v>
+      </c>
+      <c r="R24">
+        <v>12.319234351758</v>
+      </c>
+      <c r="S24">
+        <v>0.0006788153172278659</v>
+      </c>
+      <c r="T24">
+        <v>0.000603836601335071</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.4997305</v>
+      </c>
+      <c r="H25">
+        <v>0.9994609999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.03362757667131512</v>
+      </c>
+      <c r="J25">
+        <v>0.02267252514003638</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9.561199666666667</v>
+      </c>
+      <c r="N25">
+        <v>28.683599</v>
+      </c>
+      <c r="O25">
+        <v>0.04697554630528544</v>
+      </c>
+      <c r="P25">
+        <v>0.06197768059695444</v>
+      </c>
+      <c r="Q25">
+        <v>4.778023090023167</v>
+      </c>
+      <c r="R25">
+        <v>28.668138540139</v>
+      </c>
+      <c r="S25">
+        <v>0.0015796737850579</v>
+      </c>
+      <c r="T25">
+        <v>0.001405190521455594</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4997305</v>
+      </c>
+      <c r="H26">
+        <v>0.9994609999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.03362757667131512</v>
+      </c>
+      <c r="J26">
+        <v>0.02267252514003638</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>147.801735</v>
+      </c>
+      <c r="N26">
+        <v>295.60347</v>
+      </c>
+      <c r="O26">
+        <v>0.726171138408471</v>
+      </c>
+      <c r="P26">
+        <v>0.6387210142984988</v>
+      </c>
+      <c r="Q26">
+        <v>73.8610349324175</v>
+      </c>
+      <c r="R26">
+        <v>295.44413972967</v>
+      </c>
+      <c r="S26">
+        <v>0.02441937563332704</v>
+      </c>
+      <c r="T26">
+        <v>0.01448141825415225</v>
       </c>
     </row>
   </sheetData>
